--- a/rubrics.xlsx
+++ b/rubrics.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B878DAD6-D829-6145-898C-7DFF38F43437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F00C8FB-8F14-4200-A9DF-8EA1DC621FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Voorblad" sheetId="10" r:id="rId1"/>
@@ -2120,37 +2120,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2166,13 +2164,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2190,50 +2188,35 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2246,10 +2229,7 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2258,29 +2238,26 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2295,7 +2272,7 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2305,19 +2282,39 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="8" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2330,10 +2327,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2354,42 +2361,65 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -2400,160 +2430,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -2707,8 +2598,8 @@
       <xdr:rowOff>233337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -2750,6 +2641,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2778,7 +2670,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -2850,8 +2742,8 @@
       <xdr:rowOff>219944</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -2893,6 +2785,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2921,7 +2814,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -2993,8 +2886,8 @@
       <xdr:rowOff>233337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -3036,6 +2929,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3064,7 +2958,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -3136,8 +3030,8 @@
       <xdr:rowOff>219944</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -3179,6 +3073,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3207,7 +3102,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -3279,8 +3174,8 @@
       <xdr:rowOff>233337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -3322,6 +3217,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3350,7 +3246,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -3422,8 +3318,8 @@
       <xdr:rowOff>219944</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -3465,6 +3361,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3493,7 +3390,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -3565,8 +3462,8 @@
       <xdr:rowOff>233337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -3608,6 +3505,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3636,7 +3534,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -3708,8 +3606,8 @@
       <xdr:rowOff>219944</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -3751,6 +3649,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3779,7 +3678,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -3851,8 +3750,8 @@
       <xdr:rowOff>233337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -3894,6 +3793,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3922,7 +3822,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -3994,8 +3894,8 @@
       <xdr:rowOff>219944</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -4037,6 +3937,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4065,7 +3966,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -4137,8 +4038,8 @@
       <xdr:rowOff>233337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -4180,6 +4081,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4208,7 +4110,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -4280,8 +4182,8 @@
       <xdr:rowOff>219944</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -4323,6 +4225,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4351,7 +4254,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -4423,8 +4326,8 @@
       <xdr:rowOff>233337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -4466,6 +4369,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4494,7 +4398,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -4566,8 +4470,8 @@
       <xdr:rowOff>219944</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15">
@@ -4609,6 +4513,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4637,7 +4542,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15">
@@ -4709,8 +4614,8 @@
       <xdr:rowOff>233337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -4752,6 +4657,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4780,7 +4686,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -4852,8 +4758,8 @@
       <xdr:rowOff>219944</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17">
@@ -4895,6 +4801,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4923,7 +4830,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17">
@@ -4995,8 +4902,8 @@
       <xdr:rowOff>233337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -5038,6 +4945,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5066,7 +4974,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -5138,8 +5046,8 @@
       <xdr:rowOff>219944</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19">
@@ -5181,6 +5089,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5209,7 +5118,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19">
@@ -5281,8 +5190,8 @@
       <xdr:rowOff>233337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20">
@@ -5324,6 +5233,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5352,7 +5262,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20">
@@ -5424,8 +5334,8 @@
       <xdr:rowOff>219944</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21">
@@ -5467,6 +5377,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5495,7 +5406,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21">
@@ -5567,8 +5478,8 @@
       <xdr:rowOff>233337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22">
@@ -5610,6 +5521,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5638,7 +5550,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22">
@@ -5710,8 +5622,8 @@
       <xdr:rowOff>67731</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="688071" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23">
@@ -5753,6 +5665,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5781,7 +5694,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23">
@@ -5853,8 +5766,8 @@
       <xdr:rowOff>233337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24">
@@ -5896,6 +5809,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5924,7 +5838,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24">
@@ -5996,8 +5910,8 @@
       <xdr:rowOff>219944</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="TextBox 25">
@@ -6039,6 +5953,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6067,7 +5982,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="TextBox 25">
@@ -6139,8 +6054,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="TextBox 26">
@@ -6182,6 +6097,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6210,7 +6126,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="TextBox 26">
@@ -6282,8 +6198,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="TextBox 27">
@@ -6325,6 +6241,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6353,7 +6270,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="TextBox 27">
@@ -6425,8 +6342,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="TextBox 28">
@@ -6468,6 +6385,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6496,7 +6414,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="TextBox 28">
@@ -6568,8 +6486,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="TextBox 29">
@@ -6611,6 +6529,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6639,7 +6558,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="TextBox 29">
@@ -6711,8 +6630,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30">
@@ -6754,6 +6673,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6782,7 +6702,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30">
@@ -6854,8 +6774,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="TextBox 31">
@@ -6897,6 +6817,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6925,7 +6846,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="TextBox 31">
@@ -6997,8 +6918,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="TextBox 32">
@@ -7040,6 +6961,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7068,7 +6990,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="TextBox 32">
@@ -7140,8 +7062,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="TextBox 33">
@@ -7183,6 +7105,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7211,7 +7134,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="TextBox 33">
@@ -7283,8 +7206,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="657614" cy="1370568"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="TextBox 35">
@@ -7326,6 +7249,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7354,7 +7278,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="TextBox 35">
@@ -7659,9 +7583,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7699,9 +7623,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7734,26 +7658,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7786,26 +7693,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7984,258 +7874,238 @@
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView zoomScale="117" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A19" zoomScale="117" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="88.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="10" customWidth="1"/>
     <col min="6" max="6" width="27.6640625" customWidth="1"/>
     <col min="7" max="7" width="53.6640625" customWidth="1"/>
-    <col min="8" max="8" width="3.83203125" customWidth="1"/>
+    <col min="8" max="8" width="3.77734375" customWidth="1"/>
     <col min="9" max="9" width="42.33203125" customWidth="1"/>
     <col min="10" max="10" width="24.6640625" customWidth="1"/>
     <col min="11" max="11" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="68" t="s">
+    <row r="1" spans="1:7" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-    </row>
-    <row r="2" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:7" ht="40.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="C3" s="50" t="s">
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:7" ht="40.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="31"/>
+      <c r="C3" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="27"/>
-    </row>
-    <row r="4" spans="1:7" ht="30.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="52" t="s">
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" ht="30.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="40"/>
+      <c r="B4" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="48">
         <f>(Rubric!C6+Rubric!C7+Rubric!C8)/3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="44">
         <v>0.3</v>
       </c>
-      <c r="E4" s="54"/>
-    </row>
-    <row r="5" spans="1:7" ht="30.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="52" t="s">
+      <c r="E4" s="45"/>
+    </row>
+    <row r="5" spans="1:7" ht="30.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8"/>
+      <c r="B5" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="48">
         <f>Rubric!C9</f>
         <v>0</v>
       </c>
-      <c r="D5" s="70">
+      <c r="D5" s="90">
         <v>0.3</v>
       </c>
-      <c r="E5" s="55"/>
-    </row>
-    <row r="6" spans="1:7" ht="30.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="52" t="s">
+      <c r="E5" s="46"/>
+    </row>
+    <row r="6" spans="1:7" ht="30.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8"/>
+      <c r="B6" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="48">
         <f>Rubric!C10</f>
         <v>0</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="55"/>
-    </row>
-    <row r="7" spans="1:7" ht="30.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="52" t="s">
+      <c r="D6" s="91"/>
+      <c r="E6" s="46"/>
+    </row>
+    <row r="7" spans="1:7" ht="30.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="40"/>
+      <c r="B7" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="48">
         <f>Rubric!C11</f>
         <v>0</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="55"/>
-    </row>
-    <row r="8" spans="1:7" ht="30.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="52" t="s">
+      <c r="D7" s="92"/>
+      <c r="E7" s="46"/>
+    </row>
+    <row r="8" spans="1:7" ht="30.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
+      <c r="B8" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="48">
         <f>(Rubric!C3+Rubric!C4)/2</f>
         <v>0</v>
       </c>
-      <c r="D8" s="70">
+      <c r="D8" s="90">
         <v>0.2</v>
       </c>
-      <c r="E8" s="55"/>
-    </row>
-    <row r="9" spans="1:7" ht="30.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="52" t="s">
+      <c r="E8" s="46"/>
+    </row>
+    <row r="9" spans="1:7" ht="30.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8"/>
+      <c r="B9" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="48">
         <f>(Rubric!C13+Rubric!C14+Rubric!C15)/3</f>
         <v>0</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="55"/>
-    </row>
-    <row r="10" spans="1:7" ht="30.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="52" t="s">
+      <c r="D9" s="92"/>
+      <c r="E9" s="46"/>
+    </row>
+    <row r="10" spans="1:7" ht="30.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
+      <c r="B10" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="48">
         <f>(Rubric!C17+Rubric!C18)/2</f>
         <v>0</v>
       </c>
-      <c r="D10" s="70">
+      <c r="D10" s="90">
         <v>0.2</v>
       </c>
-      <c r="E10" s="55"/>
-    </row>
-    <row r="11" spans="1:7" ht="30.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="52" t="s">
+      <c r="E10" s="46"/>
+    </row>
+    <row r="11" spans="1:7" ht="30.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8"/>
+      <c r="B11" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="48">
         <f>(Rubric!C20+Rubric!C21)/2</f>
         <v>0</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="55"/>
-    </row>
-    <row r="12" spans="1:7" ht="30.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="52" t="s">
+      <c r="D11" s="91"/>
+      <c r="E11" s="46"/>
+    </row>
+    <row r="12" spans="1:7" ht="30.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="40"/>
+      <c r="B12" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="48">
         <f>Rubric!C22</f>
         <v>0</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="55"/>
-    </row>
-    <row r="13" spans="1:7" ht="30.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="52" t="s">
+      <c r="D12" s="91"/>
+      <c r="E12" s="46"/>
+    </row>
+    <row r="13" spans="1:7" ht="30.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="48">
         <f>(Rubric!C24+Rubric!C25)/2</f>
         <v>0</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="55"/>
-    </row>
-    <row r="14" spans="1:7" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="46"/>
+    </row>
+    <row r="14" spans="1:7" ht="28.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" ht="28.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="28.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="41">
         <f>IF(C10&lt;&gt;"NVD",C4*0.3+(C5+C6+C7)/3*0.3+(C8+C9)/2*0.2+(C10+C11+C12+C13)/4*0.2,"NVD")</f>
         <v>0</v>
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="28.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
+    <row r="16" spans="1:7" ht="28.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="E16" s="64" t="s">
+      <c r="C16" s="50"/>
+      <c r="E16" s="55" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
-      <c r="C17" s="58"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="1:12" ht="88.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="75"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="73" t="s">
+    <row r="17" spans="1:12" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="13"/>
+      <c r="C17" s="49"/>
+    </row>
+    <row r="18" spans="1:12" ht="88.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="1:12" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="30"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="1:12" ht="149.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="75"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="73" t="s">
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+    </row>
+    <row r="19" spans="1:12" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="11"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:12" ht="149.55000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" ht="20" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:12" ht="26.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+    </row>
+    <row r="21" spans="1:12" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:12" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="47.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
+    <row r="23" spans="1:12" ht="47.55" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-    </row>
-    <row r="24" spans="1:12" s="31" customFormat="1" ht="20" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+    </row>
+    <row r="24" spans="1:12" s="10" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="29"/>
+      <c r="D24" s="26"/>
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
@@ -8246,29 +8116,29 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D13"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D13"/>
   </mergeCells>
   <conditionalFormatting sqref="B20:D20 C23:D23">
-    <cfRule type="expression" dxfId="21" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>ISBLANK(B20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>NOT(ISNUMBER(C16))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>MOD(C16,0.5)&lt;&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>ISBLANK(C16)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8285,486 +8155,486 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="40.5" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" style="10" customWidth="1"/>
     <col min="6" max="6" width="29.6640625" customWidth="1"/>
     <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="8" width="3.83203125" customWidth="1"/>
+    <col min="8" max="8" width="3.77734375" customWidth="1"/>
     <col min="9" max="9" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="44" t="s">
+    <row r="1" spans="1:10" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="44">
+      <c r="E1" s="37">
         <v>4</v>
       </c>
-      <c r="F1" s="44">
+      <c r="F1" s="37">
         <v>5</v>
       </c>
-      <c r="G1" s="44">
+      <c r="G1" s="37">
         <v>6</v>
       </c>
-      <c r="H1" s="44">
+      <c r="H1" s="37">
         <v>7</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="67"/>
-    </row>
-    <row r="2" spans="1:10" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="83" t="s">
+      <c r="J1" s="58"/>
+    </row>
+    <row r="2" spans="1:10" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-    </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" ht="109.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="84"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="99"/>
       <c r="B3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="35" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="35" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="110"/>
-      <c r="I3" s="35" t="s">
+      <c r="H3" s="74"/>
+      <c r="I3" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="34"/>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A4" s="84"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="99"/>
       <c r="B4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="89"/>
-      <c r="I4" s="17" t="s">
+      <c r="H4" s="60"/>
+      <c r="I4" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="78" t="s">
+    <row r="5" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="144.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="79"/>
-      <c r="B6" s="18" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="144.44999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="94"/>
+      <c r="B6" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17" t="s">
+      <c r="H6" s="15"/>
+      <c r="I6" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="122" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="79"/>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="94"/>
       <c r="B7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17" t="s">
+      <c r="H7" s="15"/>
+      <c r="I7" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="80"/>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="95"/>
       <c r="B8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17" t="s">
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="81" t="s">
+    <row r="9" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="17" t="s">
+      <c r="C9" s="47"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17" t="s">
+      <c r="H9" s="15"/>
+      <c r="I9" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="82"/>
-      <c r="B10" s="46" t="s">
+    <row r="10" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="97"/>
+      <c r="B10" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="17" t="s">
+      <c r="C10" s="47"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="82"/>
-      <c r="B11" s="46" t="s">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="97"/>
+      <c r="B11" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="88" t="s">
+      <c r="C11" s="47"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="88" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="59" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="85" t="s">
+    <row r="12" spans="1:10" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="43"/>
-    </row>
-    <row r="13" spans="1:10" s="5" customFormat="1" ht="75.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="85"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="36"/>
+    </row>
+    <row r="13" spans="1:10" s="5" customFormat="1" ht="75.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="100"/>
       <c r="B13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="35" t="s">
+      <c r="C13" s="47"/>
+      <c r="D13" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="35" t="s">
+      <c r="E13" s="29"/>
+      <c r="F13" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="35" t="s">
+      <c r="H13" s="29"/>
+      <c r="I13" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="34"/>
-    </row>
-    <row r="14" spans="1:10" s="5" customFormat="1" ht="78.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="85"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" s="5" customFormat="1" ht="78.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="100"/>
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="35" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="109" t="s">
+      <c r="G14" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35" t="s">
+      <c r="H14" s="28"/>
+      <c r="I14" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="J14" s="34"/>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="86"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="71.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="101"/>
       <c r="B15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="89" t="s">
+      <c r="G15" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17" t="s">
+      <c r="H15" s="15"/>
+      <c r="I15" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="65.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="77" t="s">
+    <row r="16" spans="1:10" ht="65.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-    </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="120.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="77"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="120.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="93"/>
       <c r="B17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="89" t="s">
+      <c r="G17" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17" t="s">
+      <c r="H17" s="15"/>
+      <c r="I17" s="15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="75.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="77"/>
-      <c r="B18" s="19" t="s">
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="75.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="93"/>
+      <c r="B18" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32" t="s">
+      <c r="C18" s="47"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="89" t="s">
+      <c r="G18" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32" t="s">
+      <c r="H18" s="15"/>
+      <c r="I18" s="15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="77"/>
-      <c r="B19" s="46" t="s">
+    <row r="19" spans="1:9" ht="48.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="93"/>
+      <c r="B19" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-    </row>
-    <row r="20" spans="1:9" s="34" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="77"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="51.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="93"/>
       <c r="B20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="89" t="s">
+      <c r="C20" s="47"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32" t="s">
+      <c r="H20" s="15"/>
+      <c r="I20" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="34" customFormat="1" ht="93.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="77"/>
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="93.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="93"/>
       <c r="B21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="32" t="s">
+      <c r="C21" s="47"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="89" t="s">
+      <c r="G21" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32" t="s">
+      <c r="H21" s="15"/>
+      <c r="I21" s="15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="77"/>
-      <c r="B22" s="46" t="s">
+    <row r="22" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="93"/>
+      <c r="B22" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="32" t="s">
+      <c r="C22" s="47"/>
+      <c r="D22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32" t="s">
+      <c r="E22" s="15"/>
+      <c r="F22" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="87" t="s">
+      <c r="G22" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32" t="s">
+      <c r="H22" s="15"/>
+      <c r="I22" s="15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="55.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="77"/>
-      <c r="B23" s="46" t="s">
+    <row r="23" spans="1:9" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="93"/>
+      <c r="B23" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-    </row>
-    <row r="24" spans="1:9" s="34" customFormat="1" ht="120.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="77"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="120.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="93"/>
       <c r="B24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="32" t="s">
+      <c r="C24" s="47"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="G24" s="32" t="s">
+      <c r="G24" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32" t="s">
+      <c r="H24" s="15"/>
+      <c r="I24" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="5" customFormat="1" ht="80.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="77"/>
+    <row r="25" spans="1:9" s="5" customFormat="1" ht="80.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="93"/>
       <c r="B25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="32" t="s">
+      <c r="C25" s="47"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="89" t="s">
+      <c r="G25" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32" t="s">
+      <c r="H25" s="15"/>
+      <c r="I25" s="15" t="s">
         <v>125</v>
       </c>
     </row>
@@ -8776,94 +8646,34 @@
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A12:A15"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="17" priority="25">
+  <conditionalFormatting sqref="C3:C4">
+    <cfRule type="expression" dxfId="5" priority="24">
       <formula>ISBLANK(C3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="16" priority="24">
-      <formula>ISBLANK(C4)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="15" priority="23">
+  <conditionalFormatting sqref="C6:C11">
+    <cfRule type="expression" dxfId="4" priority="18">
       <formula>ISBLANK(C6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="14" priority="22">
-      <formula>ISBLANK(C7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="13" priority="21">
-      <formula>ISBLANK(C8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="12" priority="20">
-      <formula>ISBLANK(C9)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="11" priority="19">
-      <formula>ISBLANK(C10)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="10" priority="18">
-      <formula>ISBLANK(C11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="9" priority="17">
+  <conditionalFormatting sqref="C13:C15">
+    <cfRule type="expression" dxfId="3" priority="15">
       <formula>ISBLANK(C13)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="8" priority="16">
-      <formula>ISBLANK(C14)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="7" priority="15">
-      <formula>ISBLANK(C15)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="6" priority="14">
+  <conditionalFormatting sqref="C17:C18">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>ISBLANK(C17)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="5" priority="13">
-      <formula>ISBLANK(C18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="4" priority="11">
+  <conditionalFormatting sqref="C20:C22">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>ISBLANK(C20)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="3" priority="10">
-      <formula>ISBLANK(C21)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="2" priority="4">
+  <conditionalFormatting sqref="C24:C25">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>ISBLANK(C24)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>ISBLANK(C25)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISBLANK(C22)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8879,965 +8689,1047 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="20.83203125" style="90" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="90" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="90" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="90" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="90" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" style="90" customWidth="1"/>
-    <col min="8" max="8" width="38" style="90" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" style="90" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.33203125" style="90" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="20.83203125" style="90" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="90"/>
+    <col min="1" max="2" width="20.77734375" style="61" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" style="61" customWidth="1"/>
+    <col min="8" max="8" width="38" style="61" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" style="61" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.33203125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="20.77734375" style="61" customWidth="1"/>
+    <col min="16" max="16384" width="10.77734375" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="117" t="s">
+    <row r="1" spans="1:10" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="112" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="119" t="s">
+      <c r="C2" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119" t="s">
+      <c r="D2" s="116"/>
+      <c r="E2" s="116" t="s">
         <v>196</v>
       </c>
-      <c r="F2" s="120"/>
-      <c r="H2" s="130" t="s">
+      <c r="F2" s="117"/>
+      <c r="H2" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="I2" s="131" t="s">
+      <c r="I2" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="J2" s="132" t="s">
+      <c r="J2" s="79" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="121"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="114" t="s">
+    <row r="3" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="113"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="114" t="s">
+      <c r="E3" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="F3" s="122" t="s">
+      <c r="F3" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="H3" s="133" t="s">
+      <c r="H3" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="I3" s="114">
+      <c r="I3" s="75">
         <v>8</v>
       </c>
-      <c r="J3" s="122">
+      <c r="J3" s="76">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="123" t="s">
+    <row r="4" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="102" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="124"/>
-      <c r="H4" s="133" t="s">
+      <c r="B4" s="103"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="110"/>
+      <c r="H4" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="I4" s="114">
+      <c r="I4" s="75">
         <v>4</v>
       </c>
-      <c r="J4" s="122">
+      <c r="J4" s="76">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="123"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="124"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="122"/>
-    </row>
-    <row r="6" spans="1:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="123"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="124"/>
-      <c r="H6" s="134" t="s">
+    <row r="5" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="102"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="110"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="76"/>
+    </row>
+    <row r="6" spans="1:10" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="110"/>
+      <c r="H6" s="81" t="s">
         <v>215</v>
       </c>
-      <c r="I6" s="135">
+      <c r="I6" s="82">
         <f>SUM(I3:I5)</f>
         <v>12</v>
       </c>
-      <c r="J6" s="136">
+      <c r="J6" s="83">
         <f>SUM(J3:J5)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="123"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="124"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-    </row>
-    <row r="8" spans="1:10" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="125"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="129"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-    </row>
-    <row r="9" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="117" t="s">
+    <row r="7" spans="1:10" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="110"/>
+    </row>
+    <row r="8" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="104"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="111"/>
+    </row>
+    <row r="9" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="112" t="s">
         <v>217</v>
       </c>
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119" t="s">
+      <c r="D9" s="116"/>
+      <c r="E9" s="116" t="s">
         <v>196</v>
       </c>
-      <c r="F9" s="120"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-    </row>
-    <row r="10" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="121"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="114" t="s">
+      <c r="F9" s="117"/>
+    </row>
+    <row r="10" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="113"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="D10" s="114" t="s">
+      <c r="D10" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="E10" s="114" t="s">
+      <c r="E10" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="F10" s="122" t="s">
+      <c r="F10" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-    </row>
-    <row r="11" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="123" t="s">
+    </row>
+    <row r="11" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="102" t="s">
         <v>199</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="124"/>
-    </row>
-    <row r="12" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="123"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="124"/>
-    </row>
-    <row r="13" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="123"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="124"/>
-    </row>
-    <row r="14" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="123"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="124"/>
-    </row>
-    <row r="15" spans="1:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="125"/>
-      <c r="B15" s="126"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="129"/>
-    </row>
-    <row r="16" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="117" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="110"/>
+    </row>
+    <row r="12" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="102"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="110"/>
+    </row>
+    <row r="13" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="102"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="110"/>
+    </row>
+    <row r="14" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="102"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="110"/>
+    </row>
+    <row r="15" spans="1:10" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="104"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="111"/>
+    </row>
+    <row r="16" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="112" t="s">
         <v>218</v>
       </c>
-      <c r="B16" s="118" t="s">
+      <c r="B16" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119" t="s">
+      <c r="D16" s="116"/>
+      <c r="E16" s="116" t="s">
         <v>196</v>
       </c>
-      <c r="F16" s="120"/>
-    </row>
-    <row r="17" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="121"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="114" t="s">
+      <c r="F16" s="117"/>
+    </row>
+    <row r="17" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="113"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="D17" s="114" t="s">
+      <c r="D17" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="E17" s="114" t="s">
+      <c r="E17" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="F17" s="122" t="s">
+      <c r="F17" s="76" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="123" t="s">
+    <row r="18" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="102" t="s">
         <v>200</v>
       </c>
-      <c r="B18" s="115"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="124"/>
-    </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="123"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="124"/>
-    </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="123"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="124"/>
-    </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="123"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="124"/>
-    </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="125"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="129"/>
-    </row>
-    <row r="23" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="117" t="s">
+      <c r="B18" s="103"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="110"/>
+    </row>
+    <row r="19" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="102"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="110"/>
+    </row>
+    <row r="20" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="102"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="110"/>
+    </row>
+    <row r="21" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="102"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="110"/>
+    </row>
+    <row r="22" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="104"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="111"/>
+    </row>
+    <row r="23" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="112" t="s">
         <v>219</v>
       </c>
-      <c r="B23" s="118" t="s">
+      <c r="B23" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="C23" s="119" t="s">
+      <c r="C23" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119" t="s">
+      <c r="D23" s="116"/>
+      <c r="E23" s="116" t="s">
         <v>196</v>
       </c>
-      <c r="F23" s="120"/>
-    </row>
-    <row r="24" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="121"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="114" t="s">
+      <c r="F23" s="117"/>
+    </row>
+    <row r="24" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="113"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="D24" s="114" t="s">
+      <c r="D24" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="114" t="s">
+      <c r="E24" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="F24" s="122" t="s">
+      <c r="F24" s="76" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="1">
-      <c r="A25" s="123" t="s">
+    <row r="25" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="102" t="s">
         <v>201</v>
       </c>
-      <c r="B25" s="115"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="124"/>
-    </row>
-    <row r="26" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="1">
-      <c r="A26" s="123"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="124"/>
-    </row>
-    <row r="27" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="1">
-      <c r="A27" s="123"/>
-      <c r="B27" s="115"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="124"/>
-    </row>
-    <row r="28" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="1">
-      <c r="A28" s="123"/>
-      <c r="B28" s="115"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="124"/>
-    </row>
-    <row r="29" spans="1:6" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A29" s="125"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="129"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="117" t="s">
+      <c r="B25" s="103"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="110"/>
+    </row>
+    <row r="26" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="102"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="110"/>
+    </row>
+    <row r="27" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="102"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="110"/>
+    </row>
+    <row r="28" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="110"/>
+    </row>
+    <row r="29" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="104"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="111"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="112" t="s">
         <v>220</v>
       </c>
-      <c r="B30" s="118" t="s">
+      <c r="B30" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="C30" s="119" t="s">
+      <c r="C30" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119" t="s">
+      <c r="D30" s="116"/>
+      <c r="E30" s="116" t="s">
         <v>196</v>
       </c>
-      <c r="F30" s="120"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="121"/>
-      <c r="B31" s="112"/>
-      <c r="C31" s="114" t="s">
+      <c r="F30" s="117"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="113"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="D31" s="114" t="s">
+      <c r="D31" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="E31" s="114" t="s">
+      <c r="E31" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="F31" s="122" t="s">
+      <c r="F31" s="76" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="1">
-      <c r="A32" s="123" t="s">
+    <row r="32" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="102" t="s">
         <v>202</v>
       </c>
-      <c r="B32" s="115"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="124"/>
-    </row>
-    <row r="33" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="1">
-      <c r="A33" s="123"/>
-      <c r="B33" s="115"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="124"/>
-    </row>
-    <row r="34" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="1">
-      <c r="A34" s="123"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="124"/>
-    </row>
-    <row r="35" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="1">
-      <c r="A35" s="123"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="124"/>
-    </row>
-    <row r="36" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A36" s="125"/>
-      <c r="B36" s="126"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="129"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="117" t="s">
+      <c r="B32" s="103"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="110"/>
+    </row>
+    <row r="33" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="102"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="110"/>
+    </row>
+    <row r="34" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="102"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="110"/>
+    </row>
+    <row r="35" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="102"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="110"/>
+    </row>
+    <row r="36" spans="1:6" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="104"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="111"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" s="112" t="s">
         <v>221</v>
       </c>
-      <c r="B37" s="118" t="s">
+      <c r="B37" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="C37" s="119" t="s">
+      <c r="C37" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="D37" s="119"/>
-      <c r="E37" s="119" t="s">
+      <c r="D37" s="116"/>
+      <c r="E37" s="116" t="s">
         <v>196</v>
       </c>
-      <c r="F37" s="120"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="121"/>
-      <c r="B38" s="112"/>
-      <c r="C38" s="114" t="s">
+      <c r="F37" s="117"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="113"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="D38" s="114" t="s">
+      <c r="D38" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="E38" s="114" t="s">
+      <c r="E38" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="F38" s="122" t="s">
+      <c r="F38" s="76" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="1">
-      <c r="A39" s="123" t="s">
+    <row r="39" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="102" t="s">
         <v>203</v>
       </c>
-      <c r="B39" s="115"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="124"/>
-    </row>
-    <row r="40" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="1">
-      <c r="A40" s="123"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="124"/>
-    </row>
-    <row r="41" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="1">
-      <c r="A41" s="123"/>
-      <c r="B41" s="115"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="124"/>
-    </row>
-    <row r="42" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="1">
-      <c r="A42" s="123"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="124"/>
-    </row>
-    <row r="43" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A43" s="125"/>
-      <c r="B43" s="126"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="127"/>
-      <c r="F43" s="129"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="117" t="s">
+      <c r="B39" s="103"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="110"/>
+    </row>
+    <row r="40" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="102"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="110"/>
+    </row>
+    <row r="41" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="102"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="110"/>
+    </row>
+    <row r="42" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="102"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="110"/>
+    </row>
+    <row r="43" spans="1:6" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="104"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="109"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="111"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="112" t="s">
         <v>222</v>
       </c>
-      <c r="B44" s="118" t="s">
+      <c r="B44" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="C44" s="119" t="s">
+      <c r="C44" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="D44" s="119"/>
-      <c r="E44" s="119" t="s">
+      <c r="D44" s="116"/>
+      <c r="E44" s="116" t="s">
         <v>196</v>
       </c>
-      <c r="F44" s="120"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="121"/>
-      <c r="B45" s="112"/>
-      <c r="C45" s="114" t="s">
+      <c r="F44" s="117"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="113"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="D45" s="114" t="s">
+      <c r="D45" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="E45" s="114" t="s">
+      <c r="E45" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="F45" s="122" t="s">
+      <c r="F45" s="76" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="1">
-      <c r="A46" s="123" t="s">
+    <row r="46" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="102" t="s">
         <v>204</v>
       </c>
-      <c r="B46" s="115"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="116"/>
-      <c r="F46" s="124"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="1">
-      <c r="A47" s="123"/>
-      <c r="B47" s="115"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="116"/>
-      <c r="F47" s="124"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="1">
-      <c r="A48" s="123"/>
-      <c r="B48" s="115"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="116"/>
-      <c r="F48" s="124"/>
-    </row>
-    <row r="49" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="1">
-      <c r="A49" s="123"/>
-      <c r="B49" s="115"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="116"/>
-      <c r="F49" s="124"/>
-    </row>
-    <row r="50" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A50" s="125"/>
-      <c r="B50" s="126"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="129"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="117" t="s">
+      <c r="B46" s="103"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="110"/>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="102"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="110"/>
+    </row>
+    <row r="48" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="102"/>
+      <c r="B48" s="103"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="110"/>
+    </row>
+    <row r="49" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="102"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="110"/>
+    </row>
+    <row r="50" spans="1:6" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="104"/>
+      <c r="B50" s="105"/>
+      <c r="C50" s="107"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="111"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="112" t="s">
         <v>223</v>
       </c>
-      <c r="B51" s="118" t="s">
+      <c r="B51" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="C51" s="119" t="s">
+      <c r="C51" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="D51" s="119"/>
-      <c r="E51" s="119" t="s">
+      <c r="D51" s="116"/>
+      <c r="E51" s="116" t="s">
         <v>196</v>
       </c>
-      <c r="F51" s="120"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="121"/>
-      <c r="B52" s="112"/>
-      <c r="C52" s="114" t="s">
+      <c r="F51" s="117"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="113"/>
+      <c r="B52" s="115"/>
+      <c r="C52" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="D52" s="114" t="s">
+      <c r="D52" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="E52" s="114" t="s">
+      <c r="E52" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="F52" s="122" t="s">
+      <c r="F52" s="76" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="1">
-      <c r="A53" s="123" t="s">
+    <row r="53" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="102" t="s">
         <v>205</v>
       </c>
-      <c r="B53" s="115"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="116"/>
-      <c r="F53" s="124"/>
-    </row>
-    <row r="54" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="1">
-      <c r="A54" s="123"/>
-      <c r="B54" s="115"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="116"/>
-      <c r="F54" s="124"/>
-    </row>
-    <row r="55" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="1">
-      <c r="A55" s="123"/>
-      <c r="B55" s="115"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="116"/>
-      <c r="F55" s="124"/>
-    </row>
-    <row r="56" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="1">
-      <c r="A56" s="123"/>
-      <c r="B56" s="115"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="116"/>
-      <c r="F56" s="124"/>
-    </row>
-    <row r="57" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A57" s="125"/>
-      <c r="B57" s="126"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="127"/>
-      <c r="F57" s="129"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="117" t="s">
+      <c r="B53" s="103"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="108"/>
+      <c r="E53" s="106"/>
+      <c r="F53" s="110"/>
+    </row>
+    <row r="54" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="102"/>
+      <c r="B54" s="103"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="108"/>
+      <c r="E54" s="106"/>
+      <c r="F54" s="110"/>
+    </row>
+    <row r="55" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="102"/>
+      <c r="B55" s="103"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="108"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="110"/>
+    </row>
+    <row r="56" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="102"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="108"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="110"/>
+    </row>
+    <row r="57" spans="1:6" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="104"/>
+      <c r="B57" s="105"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="109"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="111"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="112" t="s">
         <v>224</v>
       </c>
-      <c r="B58" s="118" t="s">
+      <c r="B58" s="114" t="s">
         <v>214</v>
       </c>
-      <c r="C58" s="119" t="s">
+      <c r="C58" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="D58" s="119"/>
-      <c r="E58" s="119" t="s">
+      <c r="D58" s="116"/>
+      <c r="E58" s="116" t="s">
         <v>196</v>
       </c>
-      <c r="F58" s="120"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="121"/>
-      <c r="B59" s="112"/>
-      <c r="C59" s="114" t="s">
+      <c r="F58" s="117"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="113"/>
+      <c r="B59" s="115"/>
+      <c r="C59" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="D59" s="114" t="s">
+      <c r="D59" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="E59" s="114" t="s">
+      <c r="E59" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="F59" s="122" t="s">
+      <c r="F59" s="76" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="123" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="B60" s="115"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="113"/>
-      <c r="E60" s="116"/>
-      <c r="F60" s="124"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="123"/>
-      <c r="B61" s="115"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="113"/>
-      <c r="E61" s="116"/>
-      <c r="F61" s="124"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="123"/>
-      <c r="B62" s="115"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="113"/>
-      <c r="E62" s="116"/>
-      <c r="F62" s="124"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="123"/>
-      <c r="B63" s="115"/>
-      <c r="C63" s="116"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="116"/>
-      <c r="F63" s="124"/>
-    </row>
-    <row r="64" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="125"/>
-      <c r="B64" s="126"/>
-      <c r="C64" s="127"/>
-      <c r="D64" s="128"/>
-      <c r="E64" s="127"/>
-      <c r="F64" s="129"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="117" t="s">
+      <c r="B60" s="103"/>
+      <c r="C60" s="106"/>
+      <c r="D60" s="108"/>
+      <c r="E60" s="106"/>
+      <c r="F60" s="110"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="102"/>
+      <c r="B61" s="103"/>
+      <c r="C61" s="106"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="110"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="102"/>
+      <c r="B62" s="103"/>
+      <c r="C62" s="106"/>
+      <c r="D62" s="108"/>
+      <c r="E62" s="106"/>
+      <c r="F62" s="110"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" s="102"/>
+      <c r="B63" s="103"/>
+      <c r="C63" s="106"/>
+      <c r="D63" s="108"/>
+      <c r="E63" s="106"/>
+      <c r="F63" s="110"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A64" s="104"/>
+      <c r="B64" s="105"/>
+      <c r="C64" s="107"/>
+      <c r="D64" s="109"/>
+      <c r="E64" s="107"/>
+      <c r="F64" s="111"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" s="112" t="s">
         <v>225</v>
       </c>
-      <c r="B65" s="118" t="s">
+      <c r="B65" s="114" t="s">
         <v>214</v>
       </c>
-      <c r="C65" s="119" t="s">
+      <c r="C65" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="D65" s="119"/>
-      <c r="E65" s="119" t="s">
+      <c r="D65" s="116"/>
+      <c r="E65" s="116" t="s">
         <v>196</v>
       </c>
-      <c r="F65" s="120"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="121"/>
-      <c r="B66" s="112"/>
-      <c r="C66" s="114" t="s">
+      <c r="F65" s="117"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" s="113"/>
+      <c r="B66" s="115"/>
+      <c r="C66" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="D66" s="114" t="s">
+      <c r="D66" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="E66" s="114" t="s">
+      <c r="E66" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="F66" s="122" t="s">
+      <c r="F66" s="76" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="123" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" s="102" t="s">
         <v>211</v>
       </c>
-      <c r="B67" s="115"/>
-      <c r="C67" s="116"/>
-      <c r="D67" s="113"/>
-      <c r="E67" s="116"/>
-      <c r="F67" s="124"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="123"/>
-      <c r="B68" s="115"/>
-      <c r="C68" s="116"/>
-      <c r="D68" s="113"/>
-      <c r="E68" s="116"/>
-      <c r="F68" s="124"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="123"/>
-      <c r="B69" s="115"/>
-      <c r="C69" s="116"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="116"/>
-      <c r="F69" s="124"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="123"/>
-      <c r="B70" s="115"/>
-      <c r="C70" s="116"/>
-      <c r="D70" s="113"/>
-      <c r="E70" s="116"/>
-      <c r="F70" s="124"/>
-    </row>
-    <row r="71" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="125"/>
-      <c r="B71" s="126"/>
-      <c r="C71" s="127"/>
-      <c r="D71" s="128"/>
-      <c r="E71" s="127"/>
-      <c r="F71" s="129"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="117" t="s">
+      <c r="B67" s="103"/>
+      <c r="C67" s="106"/>
+      <c r="D67" s="108"/>
+      <c r="E67" s="106"/>
+      <c r="F67" s="110"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" s="102"/>
+      <c r="B68" s="103"/>
+      <c r="C68" s="106"/>
+      <c r="D68" s="108"/>
+      <c r="E68" s="106"/>
+      <c r="F68" s="110"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" s="102"/>
+      <c r="B69" s="103"/>
+      <c r="C69" s="106"/>
+      <c r="D69" s="108"/>
+      <c r="E69" s="106"/>
+      <c r="F69" s="110"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" s="102"/>
+      <c r="B70" s="103"/>
+      <c r="C70" s="106"/>
+      <c r="D70" s="108"/>
+      <c r="E70" s="106"/>
+      <c r="F70" s="110"/>
+    </row>
+    <row r="71" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A71" s="104"/>
+      <c r="B71" s="105"/>
+      <c r="C71" s="107"/>
+      <c r="D71" s="109"/>
+      <c r="E71" s="107"/>
+      <c r="F71" s="111"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="B72" s="118" t="s">
+      <c r="B72" s="114" t="s">
         <v>214</v>
       </c>
-      <c r="C72" s="119" t="s">
+      <c r="C72" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="D72" s="119"/>
-      <c r="E72" s="119" t="s">
+      <c r="D72" s="116"/>
+      <c r="E72" s="116" t="s">
         <v>196</v>
       </c>
-      <c r="F72" s="120"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="121"/>
-      <c r="B73" s="112"/>
-      <c r="C73" s="114" t="s">
+      <c r="F72" s="117"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" s="113"/>
+      <c r="B73" s="115"/>
+      <c r="C73" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="D73" s="114" t="s">
+      <c r="D73" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="E73" s="114" t="s">
+      <c r="E73" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="F73" s="122" t="s">
+      <c r="F73" s="76" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="123" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="B74" s="115"/>
-      <c r="C74" s="116"/>
-      <c r="D74" s="113"/>
-      <c r="E74" s="116"/>
-      <c r="F74" s="124"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="123"/>
-      <c r="B75" s="115"/>
-      <c r="C75" s="116"/>
-      <c r="D75" s="113"/>
-      <c r="E75" s="116"/>
-      <c r="F75" s="124"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="123"/>
-      <c r="B76" s="115"/>
-      <c r="C76" s="116"/>
-      <c r="D76" s="113"/>
-      <c r="E76" s="116"/>
-      <c r="F76" s="124"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="123"/>
-      <c r="B77" s="115"/>
-      <c r="C77" s="116"/>
-      <c r="D77" s="113"/>
-      <c r="E77" s="116"/>
-      <c r="F77" s="124"/>
-    </row>
-    <row r="78" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="125"/>
-      <c r="B78" s="126"/>
-      <c r="C78" s="127"/>
-      <c r="D78" s="128"/>
-      <c r="E78" s="127"/>
-      <c r="F78" s="129"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="117" t="s">
+      <c r="B74" s="103"/>
+      <c r="C74" s="106"/>
+      <c r="D74" s="108"/>
+      <c r="E74" s="106"/>
+      <c r="F74" s="110"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" s="102"/>
+      <c r="B75" s="103"/>
+      <c r="C75" s="106"/>
+      <c r="D75" s="108"/>
+      <c r="E75" s="106"/>
+      <c r="F75" s="110"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" s="102"/>
+      <c r="B76" s="103"/>
+      <c r="C76" s="106"/>
+      <c r="D76" s="108"/>
+      <c r="E76" s="106"/>
+      <c r="F76" s="110"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" s="102"/>
+      <c r="B77" s="103"/>
+      <c r="C77" s="106"/>
+      <c r="D77" s="108"/>
+      <c r="E77" s="106"/>
+      <c r="F77" s="110"/>
+    </row>
+    <row r="78" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A78" s="104"/>
+      <c r="B78" s="105"/>
+      <c r="C78" s="107"/>
+      <c r="D78" s="109"/>
+      <c r="E78" s="107"/>
+      <c r="F78" s="111"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" s="112" t="s">
         <v>227</v>
       </c>
-      <c r="B79" s="118" t="s">
+      <c r="B79" s="114" t="s">
         <v>214</v>
       </c>
-      <c r="C79" s="119" t="s">
+      <c r="C79" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="D79" s="119"/>
-      <c r="E79" s="119" t="s">
+      <c r="D79" s="116"/>
+      <c r="E79" s="116" t="s">
         <v>196</v>
       </c>
-      <c r="F79" s="120"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="121"/>
-      <c r="B80" s="112"/>
-      <c r="C80" s="114" t="s">
+      <c r="F79" s="117"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80" s="113"/>
+      <c r="B80" s="115"/>
+      <c r="C80" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="D80" s="114" t="s">
+      <c r="D80" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="E80" s="114" t="s">
+      <c r="E80" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="F80" s="122" t="s">
+      <c r="F80" s="76" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="123" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81" s="102" t="s">
         <v>213</v>
       </c>
-      <c r="B81" s="115"/>
-      <c r="C81" s="116"/>
-      <c r="D81" s="113"/>
-      <c r="E81" s="116"/>
-      <c r="F81" s="124"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="123"/>
-      <c r="B82" s="115"/>
-      <c r="C82" s="116"/>
-      <c r="D82" s="113"/>
-      <c r="E82" s="116"/>
-      <c r="F82" s="124"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="123"/>
-      <c r="B83" s="115"/>
-      <c r="C83" s="116"/>
-      <c r="D83" s="113"/>
-      <c r="E83" s="116"/>
-      <c r="F83" s="124"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="123"/>
-      <c r="B84" s="115"/>
-      <c r="C84" s="116"/>
-      <c r="D84" s="113"/>
-      <c r="E84" s="116"/>
-      <c r="F84" s="124"/>
-    </row>
-    <row r="85" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="125"/>
-      <c r="B85" s="126"/>
-      <c r="C85" s="127"/>
-      <c r="D85" s="128"/>
-      <c r="E85" s="127"/>
-      <c r="F85" s="129"/>
+      <c r="B81" s="103"/>
+      <c r="C81" s="106"/>
+      <c r="D81" s="108"/>
+      <c r="E81" s="106"/>
+      <c r="F81" s="110"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82" s="102"/>
+      <c r="B82" s="103"/>
+      <c r="C82" s="106"/>
+      <c r="D82" s="108"/>
+      <c r="E82" s="106"/>
+      <c r="F82" s="110"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83" s="102"/>
+      <c r="B83" s="103"/>
+      <c r="C83" s="106"/>
+      <c r="D83" s="108"/>
+      <c r="E83" s="106"/>
+      <c r="F83" s="110"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84" s="102"/>
+      <c r="B84" s="103"/>
+      <c r="C84" s="106"/>
+      <c r="D84" s="108"/>
+      <c r="E84" s="106"/>
+      <c r="F84" s="110"/>
+    </row>
+    <row r="85" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A85" s="104"/>
+      <c r="B85" s="105"/>
+      <c r="C85" s="107"/>
+      <c r="D85" s="109"/>
+      <c r="E85" s="107"/>
+      <c r="F85" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A4:B8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="A11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A18:B22"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="F18:F22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A25:B29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A46:B50"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="E46:E50"/>
+    <mergeCell ref="F46:F50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="A53:B57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="F53:F57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="A60:B64"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="E60:E64"/>
+    <mergeCell ref="F60:F64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="A67:B71"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="E67:E71"/>
+    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
     <mergeCell ref="A81:B85"/>
     <mergeCell ref="C81:C85"/>
     <mergeCell ref="D81:D85"/>
@@ -9852,100 +9744,6 @@
     <mergeCell ref="B79:B80"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="E79:F79"/>
-    <mergeCell ref="A67:B71"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="E67:E71"/>
-    <mergeCell ref="F67:F71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="A60:B64"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="D60:D64"/>
-    <mergeCell ref="E60:E64"/>
-    <mergeCell ref="F60:F64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="A53:B57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="E53:E57"/>
-    <mergeCell ref="F53:F57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="A46:B50"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="E46:E50"/>
-    <mergeCell ref="F46:F50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="A39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A25:B29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A18:B22"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="F18:F22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A11:B15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A4:B8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9961,29 +9759,29 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.33203125" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="C7" s="93" t="s">
+    <row r="7" spans="3:4" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C7" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="93"/>
-    </row>
-    <row r="8" spans="3:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="C8" s="91" t="s">
+      <c r="D7" s="118"/>
+    </row>
+    <row r="8" spans="3:4" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C8" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="62" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>137</v>
       </c>
@@ -9991,41 +9789,41 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="3:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="C13" s="91" t="s">
+    <row r="13" spans="3:4" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C13" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="91" t="s">
+      <c r="D13" s="62" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C26" s="92" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="119" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="92"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D26" s="119"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>146</v>
       </c>
@@ -10036,7 +9834,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>154</v>
       </c>
@@ -10050,7 +9848,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>149</v>
       </c>
@@ -10064,7 +9862,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>150</v>
       </c>
@@ -10075,7 +9873,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>151</v>
       </c>
@@ -10086,7 +9884,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>152</v>
       </c>
@@ -10096,11 +9894,11 @@
       <c r="D32" t="s">
         <v>155</v>
       </c>
-      <c r="E32" s="94" t="s">
+      <c r="E32" s="63" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>153</v>
       </c>
@@ -10110,7 +9908,7 @@
       <c r="D33" t="s">
         <v>158</v>
       </c>
-      <c r="E33" s="94" t="s">
+      <c r="E33" s="63" t="s">
         <v>157</v>
       </c>
     </row>
@@ -10131,261 +9929,261 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="105" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="123" t="s">
         <v>186</v>
       </c>
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="108"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="105"/>
-      <c r="G9" s="106" t="s">
+      <c r="C8" s="122"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="123"/>
+      <c r="G9" s="120" t="s">
         <v>188</v>
       </c>
-      <c r="H9" s="106"/>
-      <c r="O9" s="106" t="s">
+      <c r="H9" s="120"/>
+      <c r="O9" s="120" t="s">
         <v>189</v>
       </c>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="S9" s="106" t="s">
+      <c r="P9" s="120"/>
+      <c r="Q9" s="120"/>
+      <c r="S9" s="120" t="s">
         <v>190</v>
       </c>
-      <c r="T9" s="106"/>
-      <c r="U9" s="106"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="107"/>
-      <c r="S10" s="107"/>
-      <c r="T10" s="107"/>
-      <c r="U10" s="107"/>
-    </row>
-    <row r="11" spans="1:21" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="104" t="s">
+      <c r="T9" s="120"/>
+      <c r="U9" s="120"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="121"/>
+    </row>
+    <row r="11" spans="1:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="101" t="s">
+      <c r="D11" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="101" t="s">
+      <c r="E11" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="F11" s="101" t="s">
+      <c r="F11" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="G11" s="101" t="s">
+      <c r="G11" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="H11" s="101" t="s">
+      <c r="H11" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="I11" s="101" t="s">
+      <c r="I11" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="J11" s="101" t="s">
+      <c r="J11" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="K11" s="101" t="s">
+      <c r="K11" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="L11" s="101" t="s">
+      <c r="L11" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="M11" s="101" t="s">
+      <c r="M11" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="N11" s="101" t="s">
+      <c r="N11" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="O11" s="101" t="s">
+      <c r="O11" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="P11" s="101" t="s">
+      <c r="P11" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="Q11" s="101" t="s">
+      <c r="Q11" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="R11" s="101" t="s">
+      <c r="R11" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="S11" s="101" t="s">
+      <c r="S11" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="T11" s="101" t="s">
+      <c r="T11" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="U11" s="101" t="s">
+      <c r="U11" s="70" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="99" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="100"/>
-      <c r="S12" s="100"/>
-      <c r="T12" s="100"/>
-      <c r="U12" s="100"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="95" t="s">
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="96" t="s">
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="97" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="97"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="97"/>
-      <c r="U15" s="97"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="103" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="102"/>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="98" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="67" t="s">
         <v>183</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="98"/>
-      <c r="S17" s="98"/>
-      <c r="T17" s="98"/>
-      <c r="U17" s="98"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10405,176 +10203,176 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="137" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="169" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="51" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="56" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="66" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="57" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="57" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="52" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62" t="s">
+    <row r="7" spans="1:1" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="53" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="54" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="26" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+    <row r="30" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+    <row r="31" spans="1:1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="28" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+    <row r="32" spans="1:1" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="24" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{6E538146-CABC-4A02-A8C7-3E57B9CDF1C8}"/>
@@ -10587,12 +10385,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="85fa55d4-3ee8-4bc4-8fbc-63473e847397" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="81073326-ebee-4c0c-a26a-590ff4adfe90">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10839,20 +10639,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="85fa55d4-3ee8-4bc4-8fbc-63473e847397" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="81073326-ebee-4c0c-a26a-590ff4adfe90">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAFB039B-FDE8-4A2F-9AF3-E3A506D06560}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C804E12-8830-4518-B5BE-A6EDE079EC48}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="85fa55d4-3ee8-4bc4-8fbc-63473e847397"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="81073326-ebee-4c0c-a26a-590ff4adfe90"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10877,18 +10684,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C804E12-8830-4518-B5BE-A6EDE079EC48}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAFB039B-FDE8-4A2F-9AF3-E3A506D06560}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="85fa55d4-3ee8-4bc4-8fbc-63473e847397"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="81073326-ebee-4c0c-a26a-590ff4adfe90"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>